--- a/results/evaluate-id.xlsx
+++ b/results/evaluate-id.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8328611898016998</v>
+        <v>0.8207282913165266</v>
       </c>
       <c r="P2" t="n">
-        <v>0.91875</v>
+        <v>0.915625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6504713275313917</v>
+        <v>0.6621955323003536</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8288043478260869</v>
+        <v>0.8126721763085399</v>
       </c>
       <c r="P3" t="n">
-        <v>0.953125</v>
+        <v>0.921875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6440324516317963</v>
+        <v>0.6585090500197259</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8146067415730337</v>
+        <v>0.8343023255813954</v>
       </c>
       <c r="P4" t="n">
-        <v>0.90625</v>
+        <v>0.896875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6622195001101602</v>
+        <v>0.6572055031810951</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P5" t="n">
-        <v>0.93125</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6503832191903127</v>
+        <v>0.6599329286571002</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8248587570621468</v>
+        <v>0.8362068965517241</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9125</v>
+        <v>0.909375</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6587475147182585</v>
+        <v>0.6492794625359962</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8361581920903954</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="P7" t="n">
-        <v>0.925</v>
+        <v>0.9125</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6506891487950114</v>
+        <v>0.6582688184884878</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8088642659279779</v>
+        <v>0.7989130434782609</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9125</v>
+        <v>0.91875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6656729662580188</v>
+        <v>0.6704835368497339</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8338278931750742</v>
       </c>
       <c r="P9" t="n">
-        <v>0.91875</v>
+        <v>0.878125</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6634260634491347</v>
+        <v>0.662346312093519</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8112676056338028</v>
+        <v>0.8299120234604106</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9</v>
+        <v>0.884375</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6648330672294306</v>
+        <v>0.6657459118247572</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8125</v>
+        <v>0.808955223880597</v>
       </c>
       <c r="P11" t="n">
-        <v>0.934375</v>
+        <v>0.846875</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6587839922214526</v>
+        <v>0.6842361497123857</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8228571428571428</v>
+        <v>0.8184357541899442</v>
       </c>
       <c r="P12" t="n">
-        <v>0.897196261682243</v>
+        <v>0.915625</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6639219952059222</v>
+        <v>0.6588075498110568</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8252148997134671</v>
+        <v>0.8380681818181818</v>
       </c>
       <c r="P13" t="n">
-        <v>0.897196261682243</v>
+        <v>0.921875</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6567792838758176</v>
+        <v>0.651498308009152</v>
       </c>
     </row>
     <row r="14">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8291316526610645</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9221183800623053</v>
+        <v>0.859375</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6528439854716396</v>
+        <v>0.6649854665967674</v>
       </c>
     </row>
     <row r="15">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.827683615819209</v>
+        <v>0.8271954674220963</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9127725856697819</v>
+        <v>0.9125</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.654647159146833</v>
+        <v>0.6573411676678722</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1369,10 +1369,10 @@
         <v>0.8271954674220963</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9096573208722741</v>
+        <v>0.9125</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6588662980913041</v>
+        <v>0.6549588053474599</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8204419889502762</v>
+        <v>0.8542274052478134</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9252336448598131</v>
+        <v>0.915625</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6579465844609715</v>
+        <v>0.6410794339028958</v>
       </c>
     </row>
     <row r="18">
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8042895442359249</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.91875</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.664055817299061</v>
+        <v>0.647625995437484</v>
       </c>
     </row>
     <row r="19">
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8243626062322946</v>
+        <v>0.8386167146974063</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9065420560747663</v>
+        <v>0.909375</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6604907185107738</v>
+        <v>0.6500558176191684</v>
       </c>
     </row>
     <row r="20">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8294797687861272</v>
+        <v>0.8253521126760563</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8940809968847352</v>
+        <v>0.915625</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6593319950877009</v>
+        <v>0.6567682513284467</v>
       </c>
     </row>
     <row r="21">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8197183098591549</v>
+        <v>0.8450292397660819</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9065420560747663</v>
+        <v>0.903125</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6590283491590001</v>
+        <v>0.6508945760683776</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8353658536585366</v>
+        <v>0.8168604651162791</v>
       </c>
       <c r="P22" t="n">
-        <v>0.85625</v>
+        <v>0.878125</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.669158422569344</v>
+        <v>0.6734468993558064</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8308605341246291</v>
+        <v>0.8179190751445087</v>
       </c>
       <c r="P23" t="n">
-        <v>0.875</v>
+        <v>0.884375</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6675385867848116</v>
+        <v>0.6632901063332191</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8511904761904762</v>
+        <v>0.8338192419825073</v>
       </c>
       <c r="P24" t="n">
         <v>0.89375</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6490854661389174</v>
+        <v>0.6583494649213903</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.847953216374269</v>
+        <v>0.8357771260997068</v>
       </c>
       <c r="P25" t="n">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6478473425450908</v>
+        <v>0.6563500721530138</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8557993730407524</v>
+        <v>0.8452012383900929</v>
       </c>
       <c r="P26" t="n">
         <v>0.853125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6611449586320247</v>
+        <v>0.6627030666597289</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8475609756097561</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="P27" t="n">
-        <v>0.86875</v>
+        <v>0.8625</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6604827788081105</v>
+        <v>0.6665235485426441</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8373493975903614</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="P28" t="n">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6609927806918977</v>
+        <v>0.6716522857614232</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8431952662721893</v>
+        <v>0.8044692737430168</v>
       </c>
       <c r="P29" t="n">
-        <v>0.890625</v>
+        <v>0.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6535912857336157</v>
+        <v>0.6723566648647257</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8255813953488372</v>
+        <v>0.8289085545722714</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8875</v>
+        <v>0.878125</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6652463750062485</v>
+        <v>0.6681461520324465</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8236994219653179</v>
+        <v>0.8197674418604651</v>
       </c>
       <c r="P31" t="n">
-        <v>0.890625</v>
+        <v>0.88125</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.664721091138831</v>
+        <v>0.6729156275140754</v>
       </c>
     </row>
     <row r="32">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.814404432132964</v>
+        <v>0.8154269972451791</v>
       </c>
       <c r="P32" t="n">
-        <v>0.91875</v>
+        <v>0.9221183800623053</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6583721801874062</v>
+        <v>0.6570548028559298</v>
       </c>
     </row>
     <row r="33">
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8440366972477065</v>
+        <v>0.8352601156069365</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8625</v>
+        <v>0.9003115264797508</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6578309386632243</v>
+        <v>0.6555209852553703</v>
       </c>
     </row>
     <row r="34">
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.830945558739255</v>
+        <v>0.8434782608695652</v>
       </c>
       <c r="P34" t="n">
-        <v>0.90625</v>
+        <v>0.9065420560747663</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6563646762419501</v>
+        <v>0.6495883094297873</v>
       </c>
     </row>
     <row r="35">
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8328530259365994</v>
+        <v>0.828080229226361</v>
       </c>
       <c r="P35" t="n">
-        <v>0.903125</v>
+        <v>0.9003115264797508</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6597719292070203</v>
+        <v>0.6584058414708387</v>
       </c>
     </row>
     <row r="36">
@@ -2469,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7868421052631579</v>
+        <v>0.827683615819209</v>
       </c>
       <c r="P36" t="n">
-        <v>0.934375</v>
+        <v>0.9127725856697819</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6761223698039087</v>
+        <v>0.6531694456263706</v>
       </c>
     </row>
     <row r="37">
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8216374269005848</v>
+        <v>0.8342696629213483</v>
       </c>
       <c r="P37" t="n">
-        <v>0.878125</v>
+        <v>0.9252336448598131</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6668242697791106</v>
+        <v>0.6472880646989152</v>
       </c>
     </row>
     <row r="38">
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8163841807909604</v>
+        <v>0.8075880758807588</v>
       </c>
       <c r="P38" t="n">
-        <v>0.903125</v>
+        <v>0.9283489096573209</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6672320752057749</v>
+        <v>0.6631594724483318</v>
       </c>
     </row>
     <row r="39">
@@ -2640,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8291316526610645</v>
+        <v>0.8245125348189415</v>
       </c>
       <c r="P39" t="n">
-        <v>0.925</v>
+        <v>0.9221183800623053</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6582615913709722</v>
+        <v>0.6562361883687543</v>
       </c>
     </row>
     <row r="40">
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8186968838526912</v>
+        <v>0.839541547277937</v>
       </c>
       <c r="P40" t="n">
-        <v>0.903125</v>
+        <v>0.9127725856697819</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6655763282732824</v>
+        <v>0.6472001097223781</v>
       </c>
     </row>
     <row r="41">
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>72.23476297968398</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7934782608695652</v>
+        <v>0.83008356545961</v>
       </c>
       <c r="P41" t="n">
-        <v>0.9125</v>
+        <v>0.9283489096573209</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6763990160843051</v>
+        <v>0.6481138145601427</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8605341246290801</v>
+        <v>0.8273809523809523</v>
       </c>
       <c r="P42" t="n">
-        <v>0.90625</v>
+        <v>0.86875</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.641065431126642</v>
+        <v>0.6630948512262889</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8385269121813032</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="P43" t="n">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6457177484197314</v>
+        <v>0.6673897003156567</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="P44" t="n">
-        <v>0.89375</v>
+        <v>0.890625</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.653222708680511</v>
+        <v>0.6587968692520625</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8463768115942029</v>
+        <v>0.8230337078651685</v>
       </c>
       <c r="P45" t="n">
-        <v>0.9125</v>
+        <v>0.915625</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6451387931318844</v>
+        <v>0.6548997897368211</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8288043478260869</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="P46" t="n">
-        <v>0.953125</v>
+        <v>0.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6441530733626353</v>
+        <v>0.658663923114673</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.83008356545961</v>
+        <v>0.8186968838526912</v>
       </c>
       <c r="P47" t="n">
-        <v>0.93125</v>
+        <v>0.903125</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6457402905727404</v>
+        <v>0.6635527109128857</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8413597733711048</v>
+        <v>0.8096590909090909</v>
       </c>
       <c r="P48" t="n">
-        <v>0.928125</v>
+        <v>0.890625</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6444102013272937</v>
+        <v>0.6712561071728149</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8268156424581006</v>
+        <v>0.829971181556196</v>
       </c>
       <c r="P49" t="n">
-        <v>0.925</v>
+        <v>0.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6532934024862574</v>
+        <v>0.6610783993928141</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.836676217765043</v>
+        <v>0.8356940509915014</v>
       </c>
       <c r="P50" t="n">
-        <v>0.9125</v>
+        <v>0.921875</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6516234747964332</v>
+        <v>0.6519123011045327</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8441176470588235</v>
+        <v>0.8225352112676056</v>
       </c>
       <c r="P51" t="n">
-        <v>0.896875</v>
+        <v>0.9125</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6517301013027381</v>
+        <v>0.6571581153308644</v>
       </c>
     </row>
     <row r="52">
@@ -3381,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8093922651933702</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="P52" t="n">
-        <v>0.9127725856697819</v>
+        <v>0.9</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6664950149553316</v>
+        <v>0.6506832371470076</v>
       </c>
     </row>
     <row r="53">
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8323699421965318</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="P53" t="n">
-        <v>0.897196261682243</v>
+        <v>0.875</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6596294303198118</v>
+        <v>0.6486093962893766</v>
       </c>
     </row>
     <row r="54">
@@ -3495,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8433734939759037</v>
+        <v>0.8558558558558559</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8722741433021807</v>
+        <v>0.890625</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6555208982648076</v>
+        <v>0.6530036090186279</v>
       </c>
     </row>
     <row r="55">
@@ -3552,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8373493975903614</v>
+        <v>0.8391812865497076</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8660436137071651</v>
+        <v>0.896875</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6658328175544739</v>
+        <v>0.6513528330293716</v>
       </c>
     </row>
     <row r="56">
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8313953488372093</v>
+        <v>0.8584615384615385</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8909657320872274</v>
+        <v>0.871875</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6597969075580975</v>
+        <v>0.6529395067853625</v>
       </c>
     </row>
     <row r="57">
@@ -3666,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.831858407079646</v>
+        <v>0.8553846153846154</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.86875</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6670901034329388</v>
+        <v>0.6570902380468618</v>
       </c>
     </row>
     <row r="58">
@@ -3723,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8323170731707317</v>
+        <v>0.8347578347578347</v>
       </c>
       <c r="P58" t="n">
-        <v>0.8504672897196262</v>
+        <v>0.915625</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.6732278460854882</v>
+        <v>0.650450225329507</v>
       </c>
     </row>
     <row r="59">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8101983002832861</v>
+        <v>0.8123249299719888</v>
       </c>
       <c r="P59" t="n">
-        <v>0.8909657320872274</v>
+        <v>0.90625</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.671066994065637</v>
+        <v>0.6608488249562984</v>
       </c>
     </row>
     <row r="60">
@@ -3837,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8105849582172702</v>
+        <v>0.8347826086956521</v>
       </c>
       <c r="P60" t="n">
-        <v>0.9065420560747663</v>
+        <v>0.9</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.66552136234335</v>
+        <v>0.6560684337335474</v>
       </c>
     </row>
     <row r="61">
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8388059701492537</v>
+        <v>0.8123324396782842</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8753894080996885</v>
+        <v>0.946875</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6602138361415347</v>
+        <v>0.6558871358228485</v>
       </c>
     </row>
     <row r="62">
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8389830508474576</v>
+        <v>0.8348348348348348</v>
       </c>
       <c r="P62" t="n">
-        <v>0.9252336448598131</v>
+        <v>0.86875</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6482980697004644</v>
+        <v>0.6652086093954371</v>
       </c>
     </row>
     <row r="63">
@@ -4008,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8517441860465116</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="P63" t="n">
-        <v>0.9127725856697819</v>
+        <v>0.89375</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6439529050577868</v>
+        <v>0.6722670367400571</v>
       </c>
     </row>
     <row r="64">
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.851963746223565</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.9125</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6532542045051987</v>
+        <v>0.6634507421994101</v>
       </c>
     </row>
     <row r="65">
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8385269121813032</v>
+        <v>0.8213256484149856</v>
       </c>
       <c r="P65" t="n">
-        <v>0.9221183800623053</v>
+        <v>0.890625</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6499242852400015</v>
+        <v>0.6655451933183282</v>
       </c>
     </row>
     <row r="66">
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8319327731092437</v>
+        <v>0.8383233532934131</v>
       </c>
       <c r="P66" t="n">
-        <v>0.9252336448598131</v>
+        <v>0.875</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6496893188974879</v>
+        <v>0.6656626541150641</v>
       </c>
     </row>
     <row r="67">
@@ -4236,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8152173913043478</v>
+        <v>0.7966573816155988</v>
       </c>
       <c r="P67" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.89375</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6560668515729474</v>
+        <v>0.6778604293840503</v>
       </c>
     </row>
     <row r="68">
@@ -4293,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8142076502732241</v>
+        <v>0.8132183908045977</v>
       </c>
       <c r="P68" t="n">
-        <v>0.9283489096573209</v>
+        <v>0.884375</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6606127281446714</v>
+        <v>0.6720617799197927</v>
       </c>
     </row>
     <row r="69">
@@ -4350,7 +4350,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.8232044198895028</v>
+        <v>0.8060109289617486</v>
       </c>
       <c r="P69" t="n">
-        <v>0.9283489096573209</v>
+        <v>0.921875</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6535454263558259</v>
+        <v>0.6661252902643713</v>
       </c>
     </row>
     <row r="70">
@@ -4407,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8430232558139535</v>
+        <v>0.8028571428571428</v>
       </c>
       <c r="P70" t="n">
-        <v>0.9034267912772586</v>
+        <v>0.878125</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6482319021010184</v>
+        <v>0.680173950227677</v>
       </c>
     </row>
     <row r="71">
@@ -4464,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>72.29729729729731</v>
+        <v>72.39819004524887</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.83008356545961</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="P71" t="n">
-        <v>0.9283489096573209</v>
+        <v>0.91875</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6519086618681211</v>
+        <v>0.6718325299375197</v>
       </c>
     </row>
     <row r="72">
@@ -4521,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8236914600550964</v>
+        <v>0.827893175074184</v>
       </c>
       <c r="P72" t="n">
-        <v>0.934375</v>
+        <v>0.8691588785046729</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6496061386026408</v>
+        <v>0.6709750761856904</v>
       </c>
     </row>
     <row r="73">
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.8075880758807588</v>
+        <v>0.8498498498498499</v>
       </c>
       <c r="P73" t="n">
-        <v>0.93125</v>
+        <v>0.881619937694704</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.6618362729905417</v>
+        <v>0.6560723894351238</v>
       </c>
     </row>
     <row r="74">
@@ -4635,7 +4635,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8150134048257373</v>
+        <v>0.815028901734104</v>
       </c>
       <c r="P74" t="n">
-        <v>0.95</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6532918843208935</v>
+        <v>0.673736360695985</v>
       </c>
     </row>
     <row r="75">
@@ -4692,7 +4692,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8466076696165191</v>
+        <v>0.8498402555910544</v>
       </c>
       <c r="P75" t="n">
-        <v>0.896875</v>
+        <v>0.8286604361370716</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.651370132670683</v>
+        <v>0.6707622650507334</v>
       </c>
     </row>
     <row r="76">
@@ -4749,7 +4749,7 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8207282913165266</v>
+        <v>0.8493975903614458</v>
       </c>
       <c r="P76" t="n">
-        <v>0.915625</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6553013200673582</v>
+        <v>0.6580005696227959</v>
       </c>
     </row>
     <row r="77">
@@ -4806,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8254847645429363</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="P77" t="n">
-        <v>0.93125</v>
+        <v>0.9127725856697819</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.6519144784271448</v>
+        <v>0.6566029679667842</v>
       </c>
     </row>
     <row r="78">
@@ -4863,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.8413173652694611</v>
       </c>
       <c r="P78" t="n">
-        <v>0.93125</v>
+        <v>0.8753894080996885</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6499040463930881</v>
+        <v>0.660362912190927</v>
       </c>
     </row>
     <row r="79">
@@ -4920,7 +4920,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.806282722513089</v>
+        <v>0.8496932515337423</v>
       </c>
       <c r="P79" t="n">
-        <v>0.9625</v>
+        <v>0.8629283489096573</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.6574483403253339</v>
+        <v>0.6603870697923608</v>
       </c>
     </row>
     <row r="80">
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.8205882352941176</v>
       </c>
       <c r="P80" t="n">
-        <v>0.94375</v>
+        <v>0.8691588785046729</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6674597179727857</v>
+        <v>0.6698069164344856</v>
       </c>
     </row>
     <row r="81">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8116343490304709</v>
+        <v>0.8166189111747851</v>
       </c>
       <c r="P81" t="n">
-        <v>0.915625</v>
+        <v>0.8878504672897196</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6649255110667303</v>
+        <v>0.6703944603602091</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.8427299703264095</v>
+        <v>0.8352941176470589</v>
       </c>
       <c r="P82" t="n">
         <v>0.8875</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.653961572981528</v>
+        <v>0.6577481489915115</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.8347826086956521</v>
+        <v>0.8269794721407625</v>
       </c>
       <c r="P83" t="n">
-        <v>0.9</v>
+        <v>0.88125</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6540427431801326</v>
+        <v>0.6634757265246292</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.8468468468468469</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="P84" t="n">
-        <v>0.88125</v>
+        <v>0.9</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6566167309273422</v>
+        <v>0.6541957091961511</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.8267045454545454</v>
+        <v>0.8016304347826086</v>
       </c>
       <c r="P85" t="n">
-        <v>0.909375</v>
+        <v>0.921875</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6555406915116634</v>
+        <v>0.6723571740663968</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.8367952522255193</v>
+        <v>0.8194842406876791</v>
       </c>
       <c r="P86" t="n">
-        <v>0.88125</v>
+        <v>0.89375</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.6583603251034318</v>
+        <v>0.6659205518157234</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.8715596330275229</v>
+        <v>0.8228571428571428</v>
       </c>
       <c r="P87" t="n">
-        <v>0.890625</v>
+        <v>0.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.6397058130389425</v>
+        <v>0.6650257342541379</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.8323529411764706</v>
+        <v>0.82</v>
       </c>
       <c r="P88" t="n">
-        <v>0.884375</v>
+        <v>0.896875</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.6587058912574976</v>
+        <v>0.6646272745067717</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.849112426035503</v>
+        <v>0.8231884057971014</v>
       </c>
       <c r="P89" t="n">
-        <v>0.896875</v>
+        <v>0.8875</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6483632706409126</v>
+        <v>0.66638244978443</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.8391812865497076</v>
+        <v>0.828169014084507</v>
       </c>
       <c r="P90" t="n">
-        <v>0.896875</v>
+        <v>0.91875</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6550573523227985</v>
+        <v>0.6552247372687672</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8391812865497076</v>
+        <v>0.7978436657681941</v>
       </c>
       <c r="P91" t="n">
-        <v>0.896875</v>
+        <v>0.925</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6558570230708403</v>
+        <v>0.6681874097742106</v>
       </c>
     </row>
     <row r="92">
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.8176638176638177</v>
+        <v>0.827683615819209</v>
       </c>
       <c r="P92" t="n">
-        <v>0.896875</v>
+        <v>0.9127725856697819</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6664789850355813</v>
+        <v>0.6537196888579978</v>
       </c>
     </row>
     <row r="93">
@@ -5718,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.8352601156069365</v>
+        <v>0.8253521126760563</v>
       </c>
       <c r="P93" t="n">
-        <v>0.903125</v>
+        <v>0.9127725856697819</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6525286535871514</v>
+        <v>0.6554716508667748</v>
       </c>
     </row>
     <row r="94">
@@ -5775,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.8176795580110497</v>
+        <v>0.8380681818181818</v>
       </c>
       <c r="P94" t="n">
-        <v>0.925</v>
+        <v>0.9190031152647975</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6574031586560728</v>
+        <v>0.6495063036411732</v>
       </c>
     </row>
     <row r="95">
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.828080229226361</v>
+        <v>0.8240223463687151</v>
       </c>
       <c r="P95" t="n">
-        <v>0.903125</v>
+        <v>0.9190031152647975</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.6540378828393928</v>
+        <v>0.6531662634901099</v>
       </c>
     </row>
     <row r="96">
@@ -5889,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.8411764705882353</v>
+        <v>0.8454810495626822</v>
       </c>
       <c r="P96" t="n">
-        <v>0.89375</v>
+        <v>0.9034267912772586</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6543081429749052</v>
+        <v>0.6491105325587161</v>
       </c>
     </row>
     <row r="97">
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.8328530259365994</v>
+        <v>0.8156424581005587</v>
       </c>
       <c r="P97" t="n">
-        <v>0.903125</v>
+        <v>0.9096573208722741</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6534554572666392</v>
+        <v>0.6648302110465797</v>
       </c>
     </row>
     <row r="98">
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.8309037900874635</v>
+        <v>0.8414985590778098</v>
       </c>
       <c r="P98" t="n">
-        <v>0.890625</v>
+        <v>0.9096573208722741</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6589517175342163</v>
+        <v>0.6481591962479256</v>
       </c>
     </row>
     <row r="99">
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.8338278931750742</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="P99" t="n">
-        <v>0.878125</v>
+        <v>0.8909657320872274</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6604635871913098</v>
+        <v>0.6509650816788545</v>
       </c>
     </row>
     <row r="100">
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.8425655976676385</v>
+        <v>0.8267045454545454</v>
       </c>
       <c r="P100" t="n">
-        <v>0.903125</v>
+        <v>0.9065420560747663</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.6535258899986475</v>
+        <v>0.6602009454288998</v>
       </c>
     </row>
     <row r="101">
@@ -6174,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>72.39819004524887</v>
+        <v>72.29729729729731</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.8436578171091446</v>
       </c>
       <c r="P101" t="n">
-        <v>0.915625</v>
+        <v>0.8909657320872274</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6487671970242289</v>
+        <v>0.654427753912436</v>
       </c>
     </row>
   </sheetData>
